--- a/reports/product_report.xlsx
+++ b/reports/product_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -26,7 +26,7 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Sold</t>
+    <t>Stock</t>
   </si>
   <si>
     <t>UOM</t>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>ITM104967</t>
+  </si>
+  <si>
+    <t>555 TUNA AFRITADA 155G</t>
+  </si>
+  <si>
+    <t>ITM104981</t>
   </si>
 </sst>
 </file>
@@ -423,21 +429,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:I2"/>
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.565" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29.279" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -480,17 +486,48 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>1.0</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>19.4</v>
       </c>
       <c r="G2" s="2">
-        <v>2.36</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>233.36</v>
+      </c>
+      <c r="H2" s="2">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2178.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>342.86</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3200.0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/reports/product_report.xlsx
+++ b/reports/product_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -26,10 +26,7 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>UOM</t>
+    <t>Sold</t>
   </si>
   <si>
     <t>Cost</t>
@@ -44,16 +41,40 @@
     <t>Total(Php)</t>
   </si>
   <si>
-    <t>555 SRDNS RED 155G</t>
-  </si>
-  <si>
-    <t>ITM104967</t>
-  </si>
-  <si>
     <t>555 TUNA AFRITADA 155G</t>
   </si>
   <si>
     <t>ITM104981</t>
+  </si>
+  <si>
+    <t>555 TUNA MECHADO 155G</t>
+  </si>
+  <si>
+    <t>ITM104983</t>
+  </si>
+  <si>
+    <t>24/7 PNEAPL 40G 1T</t>
+  </si>
+  <si>
+    <t>ITM106869</t>
+  </si>
+  <si>
+    <t>24/7 PNEAPL 40G 1/2T</t>
+  </si>
+  <si>
+    <t>ITM106870</t>
+  </si>
+  <si>
+    <t>24/7 ORANGE 40G 1T</t>
+  </si>
+  <si>
+    <t>ITM105901</t>
+  </si>
+  <si>
+    <t>555 TUNA SPICY CALDERETA</t>
+  </si>
+  <si>
+    <t>ITM104986</t>
   </si>
 </sst>
 </file>
@@ -429,24 +450,25 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection activeCell="A1" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="29.279" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,62 +493,161 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="2">
-        <v>99</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>27.0</v>
+      </c>
       <c r="F2" s="2">
-        <v>19.4</v>
+        <v>10.29</v>
       </c>
       <c r="G2" s="2">
-        <v>233.36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2178.0</v>
+        <v>32.0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
-        <v>342.86</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.64</v>
+      </c>
+      <c r="G4" s="2">
+        <v>146</v>
+      </c>
+      <c r="H4" s="2">
+        <v>146.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="G5" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>140</v>
+      </c>
+      <c r="F6" s="2">
+        <v>187.71</v>
+      </c>
+      <c r="G6" s="2">
+        <v>146</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1027.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G7" s="2">
         <v>32</v>
       </c>
-      <c r="I3" s="2">
-        <v>3200.0</v>
+      <c r="H7" s="2">
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>

--- a/reports/product_report.xlsx
+++ b/reports/product_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -39,42 +39,6 @@
   </si>
   <si>
     <t>Total(Php)</t>
-  </si>
-  <si>
-    <t>555 TUNA AFRITADA 155G</t>
-  </si>
-  <si>
-    <t>ITM104981</t>
-  </si>
-  <si>
-    <t>555 TUNA MECHADO 155G</t>
-  </si>
-  <si>
-    <t>ITM104983</t>
-  </si>
-  <si>
-    <t>24/7 PNEAPL 40G 1T</t>
-  </si>
-  <si>
-    <t>ITM106869</t>
-  </si>
-  <si>
-    <t>24/7 PNEAPL 40G 1/2T</t>
-  </si>
-  <si>
-    <t>ITM106870</t>
-  </si>
-  <si>
-    <t>24/7 ORANGE 40G 1T</t>
-  </si>
-  <si>
-    <t>ITM105901</t>
-  </si>
-  <si>
-    <t>555 TUNA SPICY CALDERETA</t>
-  </si>
-  <si>
-    <t>ITM104986</t>
   </si>
 </sst>
 </file>
@@ -143,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -450,20 +411,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H7"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -494,162 +455,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10.29</v>
-      </c>
-      <c r="G2" s="2">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>27.2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.64</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>140</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15.64</v>
-      </c>
-      <c r="G4" s="2">
-        <v>146</v>
-      </c>
-      <c r="H4" s="2">
-        <v>146.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>70</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7.82</v>
-      </c>
-      <c r="G5" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>140</v>
-      </c>
-      <c r="F6" s="2">
-        <v>187.71</v>
-      </c>
-      <c r="G6" s="2">
-        <v>146</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1027.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.43</v>
-      </c>
-      <c r="G7" s="2">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/product_report.xlsx
+++ b/reports/product_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>Total(Php)</t>
+  </si>
+  <si>
+    <t>AFICIONADO ASSTD 85ML</t>
+  </si>
+  <si>
+    <t>ITM105907</t>
+  </si>
+  <si>
+    <t>ZONROX COLORSAFE 225ML</t>
+  </si>
+  <si>
+    <t>ITM100812</t>
+  </si>
+  <si>
+    <t>ZONROX ORIGINAL 500ML</t>
+  </si>
+  <si>
+    <t>ITM100799</t>
+  </si>
+  <si>
+    <t>ZONROX COLORSAFE 900ML</t>
+  </si>
+  <si>
+    <t>ITM100810</t>
   </si>
 </sst>
 </file>
@@ -107,9 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -411,20 +438,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H1"/>
+      <selection activeCell="A1" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29.279" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -455,6 +482,110 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>238.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>58.93</v>
+      </c>
+      <c r="G2" s="2">
+        <v>275.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>262.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.75</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14.46</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>128.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20.03</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>63.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>133.75</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/product_report.xlsx
+++ b/reports/product_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>No.</t>
   </si>
@@ -41,28 +41,10 @@
     <t>Total(Php)</t>
   </si>
   <si>
-    <t>AFICIONADO ASSTD 85ML</t>
-  </si>
-  <si>
-    <t>ITM105907</t>
-  </si>
-  <si>
-    <t>ZONROX COLORSAFE 225ML</t>
-  </si>
-  <si>
-    <t>ITM100812</t>
-  </si>
-  <si>
-    <t>ZONROX ORIGINAL 500ML</t>
-  </si>
-  <si>
-    <t>ITM100799</t>
-  </si>
-  <si>
-    <t>ZONROX COLORSAFE 900ML</t>
-  </si>
-  <si>
-    <t>ITM100810</t>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Supremo Beer 1L</t>
   </si>
 </sst>
 </file>
@@ -438,19 +420,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="29.279" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -489,23 +471,23 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="2">
-        <v>238.0</v>
+        <v>130.0</v>
       </c>
       <c r="F2" s="2">
-        <v>58.93</v>
+        <v>49.92</v>
       </c>
       <c r="G2" s="2">
-        <v>275.0</v>
+        <v>208.0</v>
       </c>
       <c r="H2" s="2">
-        <v>262.73</v>
+        <v>374.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -513,77 +495,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="2">
-        <v>22.75</v>
+        <v>150.0</v>
       </c>
       <c r="F3" s="2">
-        <v>14.46</v>
+        <v>19.8</v>
       </c>
       <c r="G3" s="2">
-        <v>27.0</v>
+        <v>165.0</v>
       </c>
       <c r="H3" s="2">
-        <v>128.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20.03</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="G4" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>63.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>133.75</v>
+        <v>156.75</v>
       </c>
     </row>
   </sheetData>
